--- a/MethodDemos/output/statistics/cermine-AUTHOR_AFFILIATIONS.xlsx
+++ b/MethodDemos/output/statistics/cermine-AUTHOR_AFFILIATIONS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="272">
   <si>
     <t>TUW-137078</t>
   </si>
@@ -34,11 +34,11 @@
 Annette Ten Teije --- Vrije Universiteit Amsterdam,Dept. of Artificial Intelligence</t>
   </si>
   <si>
-    <t>2Annette ten Teije --- Vrije Universiteit Amsterdam, Dept. of Artificial Intelligence
-1Peter Votruba --- Institute of Software Technology and Interactive Systems
-Marije Geldof --- Vrije Universiteit Amsterdam, Dept. of Artificial Intelligence
-2Mar Marcos --- Universitat Jaume I, Dept. of Computer Science
-2Frank van Harmelen --- Vrije Universiteit Amsterdam, Dept. of Artificial Intelligence</t>
+    <t>Marije Geldof --- Vrije Universiteit Amsterdam, Dept. of Artificial Intelligence
+Mar Marcos --- Universitat Jaume I, Dept. of Computer Science
+Peter Votruba --- Institute of Software Technology and Interactive Systems
+Annette ten Teije --- Vrije Universiteit Amsterdam, Dept. of Artificial Intelligence
+Frank van Harmelen --- Vrije Universiteit Amsterdam, Dept. of Artificial Intelligence</t>
   </si>
   <si>
     <t>TUW-138447</t>
@@ -84,7 +84,7 @@
     <t>Andreas Heigl --- Technischen Universität Wien,Computer Graphik und Algorithmen</t>
   </si>
   <si>
-    <t>0Andreas Heigl --- der Technischen Universitat Wien
+    <t>Andreas Heigl --- der Technischen Universitat Wien
 Univ.-Prof. Dr. Michael Hanke --- der Technischen Universitat Wien</t>
   </si>
   <si>
@@ -129,10 +129,6 @@
 Michael Ilger --- University of Vienna</t>
   </si>
   <si>
-    <t>0Marco Zapletal --- University of Vienna
-Michael Ilger --- University of Vienna</t>
-  </si>
-  <si>
     <t>TUW-140229</t>
   </si>
   <si>
@@ -141,7 +137,7 @@
   </si>
   <si>
     <t>Sabine Graf --- Vienna University of Technology, Women's Postgraduate College for Internet,Austria,AT
-1Kinshuk --- Massey University, Department of Information Systems,New Zealand,NZ</t>
+Kinshuk --- Massey University, Department of Information Systems,New Zealand,NZ</t>
   </si>
   <si>
     <t>TUW-140253</t>
@@ -198,9 +194,9 @@
 Steve Cayzer --- HP Labs,United Kingdom,GB</t>
   </si>
   <si>
-    <t>012steve.cayzer@hp.com --- Paul Shabajee
-Steve Cayzer --- Paul Shabajee
-012steve.cayzer@hp.com --- Elke Michlmayr
+    <t>Steve Cayzer --- Paul Shabajee
+steve.cayzer@hp.com --- Elke Michlmayr
+steve.cayzer@hp.com --- Paul Shabajee
 Steve Cayzer --- HP Labs,United Kingdom,UK
 Steve Cayzer --- Elke Michlmayr</t>
   </si>
@@ -223,9 +219,9 @@
 Sabine Graf --- Vienna University of Technology,Women's Postgraduate College for Internet Technologies,Austria,AT</t>
   </si>
   <si>
-    <t>1Kinshuk --- Athabasca University, School of Computing and Information Systems,Canada,CA
-Sabine Graf --- Vienna University of Technology, Women's Postgraduate College for Internet Technologies,Austria,AT
-2Taiyu Lin --- Massey University, Department of Information Systems,New Zealand,NZ</t>
+    <t>Sabine Graf --- Vienna University of Technology, Women's Postgraduate College for Internet Technologies,Austria,AT
+Taiyu Lin --- Massey University, Department of Information Systems,New Zealand,NZ
+Kinshuk --- Athabasca University, School of Computing and Information Systems,Canada,CA</t>
   </si>
   <si>
     <t>TUW-141121</t>
@@ -235,10 +231,10 @@
 Andreas Rauber --- Vienna University of Technology,Institute of Software Technology and Interactive Systems</t>
   </si>
   <si>
-    <t>Robert Neumayer --- Vienna University of Technology Institute of Software Technology and Interactive Systems
-0Andreas Rauber --- Vienna University of Technology Institute of Software Technology and Interactive Systems
-0neumayer --- Vienna University of Technology Institute of Software Technology and Interactive Systems
-0rauber}@ifs.tuwien.ac.at --- Vienna University of Technology Institute of Software Technology and Interactive Systems</t>
+    <t>Andreas Rauber --- Vienna University of Technology Institute of Software Technology and Interactive Systems
+Robert Neumayer --- Vienna University of Technology Institute of Software Technology and Interactive Systems
+rauber}@ifs.tuwien.ac.at --- Vienna University of Technology Institute of Software Technology and Interactive Systems
+neumayer --- Vienna University of Technology Institute of Software Technology and Interactive Systems</t>
   </si>
   <si>
     <t>TUW-141140</t>
@@ -266,26 +262,26 @@
 Gefei Zhang --- Ludwig-Maximilians-Universität München,Germany,DE</t>
   </si>
   <si>
-    <t>1Maristella Matera --- Politecnico di Milano,Italy,IT
-5Birgit Pröll --- Johannes Kepler Universität Linz,Austria,AT
+    <t>Irene Garrigós --- Universidad de Alicante,Spain,ES
+Birgit Pröll --- Johannes Kepler Universität Linz,Austria,AT
+Nora Koch --- Ludwig-Maximilians-Universität München,Germany,DE
+Alexander Knapp --- Ludwig-Maximilians-Universität München,Germany,DE
+Nathalie Moreno --- Universidad de Málaga,Spain,ES
+Wieland Schwinger --- Johannes Kepler Universität Linz,Austria,AT
 Antonio Vallecillo --- Universidad de Málaga,Spain,ES
-3Gefei Zhang --- Ludwig-Maximilians-Universität München,Germany,DE
-2Irene Garrigós --- Universidad de Alicante,Spain,ES
-5Nora Koch --- Ludwig-Maximilians-Universität München,Germany,DE
-0Thomas Reiter --- Johannes Kepler Universität Linz,Austria,AT
-4Nathalie Moreno --- Universidad de Málaga,Spain,ES
-4Sara Comai --- Politecnico di Milano,Italy,IT
-1Cristina Cachero --- Universidad de Alicante,Spain,ES
-0Werner Ret- schitzegger --- Johannes Kepler Universität Linz,Austria,AT
-3Wieland Schwinger --- Johannes Kepler Universität Linz,Austria,AT
-3Alexander Knapp --- Ludwig-Maximilians-Universität München,Germany,DE
-2Piero Fraternali --- Politecnico di Milano,Italy,IT
-4Gerti Kappel --- Technical University Vienna,Austria,AT
-0Manuel Wimmer --- Technical University Vienna,Austria,AT
-0José E. Rivera --- Universidad de Málaga,Spain,ES
-4Jaime Gómez --- Universidad de Alicante,Spain,ES
-5Andrea Schauerhuber --- Technical University Vienna,Austria,AT
-2Santiago Meliá --- Universidad de Alicante,Spain,ES</t>
+Cristina Cachero --- Universidad de Alicante,Spain,ES
+Jaime Gómez --- Universidad de Alicante,Spain,ES
+Werner Ret- schitzegger --- Johannes Kepler Universität Linz,Austria,AT
+Santiago Meliá --- Universidad de Alicante,Spain,ES
+Maristella Matera --- Politecnico di Milano,Italy,IT
+Andrea Schauerhuber --- Technical University Vienna,Austria,AT
+Thomas Reiter --- Johannes Kepler Universität Linz,Austria,AT
+Gefei Zhang --- Ludwig-Maximilians-Universität München,Germany,DE
+Sara Comai --- Politecnico di Milano,Italy,IT
+Piero Fraternali --- Politecnico di Milano,Italy,IT
+José E. Rivera --- Universidad de Málaga,Spain,ES
+Manuel Wimmer --- Technical University Vienna,Austria,AT
+Gerti Kappel --- Technical University Vienna,Austria,AT</t>
   </si>
   <si>
     <t>TUW-141336</t>
@@ -296,20 +292,20 @@
 Nadia Creignou --- Université de la Méditerranée,LIF, UMR CNRS 616,France</t>
   </si>
   <si>
-    <t>01avenue de Luminy --- Uwe Egly Institut fu ̈r Informationssysteme / Technische Universita ̈t Wien Favoritenstraße - A- Wien,Austria,AT
-01Herv´e Daud´e LATP --- Universit ́e de Provence ,France,FR
-01UMR CNRS --- Uwe Egly Institut fu ̈r Informationssysteme / Technische Universita ̈t Wien Favoritenstraße - A- Wien,Austria,AT
-01France --- Uwe Egly Institut fu ̈r Informationssysteme / Technische Universita ̈t Wien Favoritenstraße - A- Wien,Austria,AT
-01Universit´e de la M´editerran´ee --- Universit ́e de Provence ,France,FR
-01UMR CNRS --- Universit ́e de Provence ,France,FR
-01Marseille --- Uwe Egly Institut fu ̈r Informationssysteme / Technische Universita ̈t Wien Favoritenstraße - A- Wien,Austria,AT
-01avenue de Luminy --- Universit ́e de Provence ,France,FR
-01France --- Universit ́e de Provence ,France,FR
-01Universit´e de la M´editerran´ee --- Uwe Egly Institut fu ̈r Informationssysteme / Technische Universita ̈t Wien Favoritenstraße - A- Wien,Austria,AT
-01Herv´e Daud´e LATP --- Uwe Egly Institut fu ̈r Informationssysteme / Technische Universita ̈t Wien Favoritenstraße - A- Wien,Austria,AT
+    <t>Universit´e de la M´editerran´ee --- Uwe Egly Institut fu ̈r Informationssysteme / Technische Universita ̈t Wien Favoritenstraße - A- Wien,Austria,AT
+Marseille --- Universit ́e de Provence ,France,FR
+avenue de Luminy --- Universit ́e de Provence ,France,FR
+Marseille --- Uwe Egly Institut fu ̈r Informationssysteme / Technische Universita ̈t Wien Favoritenstraße - A- Wien,Austria,AT
+UMR CNRS --- Universit ́e de Provence ,France,FR
+avenue de Luminy --- Uwe Egly Institut fu ̈r Informationssysteme / Technische Universita ̈t Wien Favoritenstraße - A- Wien,Austria,AT
+UMR CNRS --- Uwe Egly Institut fu ̈r Informationssysteme / Technische Universita ̈t Wien Favoritenstraße - A- Wien,Austria,AT
+France --- Universit ́e de Provence ,France,FR
+Herv´e Daud´e LATP --- Universit ́e de Provence ,France,FR
 Nadia Creignou LIF --- Uwe Egly Institut fu ̈r Informationssysteme / Technische Universita ̈t Wien Favoritenstraße - A- Wien,Austria,AT
 Nadia Creignou LIF --- Universit ́e de Provence ,France,FR
-01Marseille --- Universit ́e de Provence ,France,FR</t>
+France --- Uwe Egly Institut fu ̈r Informationssysteme / Technische Universita ̈t Wien Favoritenstraße - A- Wien,Austria,AT
+Universit´e de la M´editerran´ee --- Universit ́e de Provence ,France,FR
+Herv´e Daud´e LATP --- Uwe Egly Institut fu ̈r Informationssysteme / Technische Universita ̈t Wien Favoritenstraße - A- Wien,Austria,AT</t>
   </si>
   <si>
     <t>TUW-141618</t>
@@ -351,10 +347,10 @@
 Michel Gendreau --- Centre interuniversitaire de recherche sur les réseaux d'entreprise,la logistique et le transport (CIRRELT),Canada,CA</t>
   </si>
   <si>
-    <t>2Karl F. Doerner --- University of Vienna, Department of Business Administration,Austria,AT
-1Michel Gendreau --- Centre interuniversitaire de recherche sur les r
+    <t>Richard F. Hartl --- University of Vienna, Department of Business Administration,Austria,AT
 Guenter Kiechle --- Vienna Technical University,Austria,AT
-0Richard F. Hartl --- University of Vienna, Department of Business Administration,Austria,AT</t>
+Karl F. Doerner --- University of Vienna, Department of Business Administration,Austria,AT
+Michel Gendreau --- Centre interuniversitaire de recherche sur les r</t>
   </si>
   <si>
     <t>TUW-172697</t>
@@ -368,14 +364,6 @@
 Andreas Rauber --- Vienna University of Technology,Austria,AT</t>
   </si>
   <si>
-    <t>0Michael Kraxner --- Vienna University of Technology,Austria,AT
-0Florian Motlik --- Vienna University of Technology,Austria,AT
-Hannes Kulovits --- Vienna University of Technology,Austria,AT
-0Kevin Stadler --- Vienna University of Technology,Austria,AT
-0Andreas Rauber --- Vienna University of Technology,Austria,AT
-0Christoph Becker --- Vienna University of Technology,Austria,AT</t>
-  </si>
-  <si>
     <t>TUW-174216</t>
   </si>
   <si>
@@ -386,10 +374,10 @@
 Volker Heydegger --- University of Cologne,Germany,DE</t>
   </si>
   <si>
-    <t>01Andreas Rauber --- Volker Heydegger, Jan Schnasse, Manfred Thaller (University of Cologne,Germany,DE
-01Andreas Rauber --- (Vienna University of Technology,Austria,AT
-Christoph Becker --- (Vienna University of Technology,Austria,AT
-Christoph Becker --- Volker Heydegger, Jan Schnasse, Manfred Thaller (University of Cologne,Germany,DE</t>
+    <t>Christoph Becker --- (Vienna University of Technology,Austria,AT
+Andreas Rauber --- (Vienna University of Technology,Austria,AT
+Christoph Becker --- Volker Heydegger, Jan Schnasse, Manfred Thaller (University of Cologne,Germany,DE
+Andreas Rauber --- Volker Heydegger, Jan Schnasse, Manfred Thaller (University of Cologne,Germany,DE</t>
   </si>
   <si>
     <t>TUW-175428</t>
@@ -418,18 +406,18 @@
 Tony Lam --- eNetunion,Switzerland,CH</t>
   </si>
   <si>
-    <t>4Costas DAVARAKIS --- Systema Technologies,Greece,GR
-0Elias KALAPANIDAS --- Systema Technologies,Greece,GR
-1Juan J. SANTAMARÍA --- Department of Psychiatry, University Hospital of Bellvitge and CIBEROBN, Instituto Carlos III,Spain,ES
-5Tony LAM --- Netunion,Switzerland,CH
+    <t>Tony LAM --- Netunion,Switzerland,CH
+Costas DAVARAKIS --- Systema Technologies,Greece,GR
 Susana JIMÉNEZ-MURCIA --- Department of Psychiatry, University Hospital of Bellvitge and CIBEROBN, Instituto Carlos III,Spain,ES
-2Dimitri KONSTANTAS --- University of Geneva,Switzerland,CH
-0Thierry RAGUIN --- Netunion,Switzerland,CH
-5Otilia KOCSIS --- Wire Communications Laboratory, University of Patras,Greece,GR
-4Hannes KAUFMANN --- Vienna University of Technology,Austria,AT
-0Fernando FERNÁNDEZ-ARANDA --- Department of Psychiatry, University Hospital of Bellvitge and CIBEROBN, Instituto Carlos III,Spain,ES
-3Todor GANCHEV --- Wire Communications Laboratory, University of Patras,Greece,GR
-1Christian BREITENEDER --- Vienna University of Technology,Austria,AT</t>
+Christian BREITENEDER --- Vienna University of Technology,Austria,AT
+Fernando FERNÁNDEZ-ARANDA --- Department of Psychiatry, University Hospital of Bellvitge and CIBEROBN, Instituto Carlos III,Spain,ES
+Dimitri KONSTANTAS --- University of Geneva,Switzerland,CH
+Otilia KOCSIS --- Wire Communications Laboratory, University of Patras,Greece,GR
+Todor GANCHEV --- Wire Communications Laboratory, University of Patras,Greece,GR
+Thierry RAGUIN --- Netunion,Switzerland,CH
+Elias KALAPANIDAS --- Systema Technologies,Greece,GR
+Hannes KAUFMANN --- Vienna University of Technology,Austria,AT
+Juan J. SANTAMARÍA --- Department of Psychiatry, University Hospital of Bellvitge and CIBEROBN, Instituto Carlos III,Spain,ES</t>
   </si>
   <si>
     <t>TUW-177140</t>
@@ -441,10 +429,10 @@
 Hans Tompits --- Technische Universität Wien,Institut für Informationssysteme,Austria,AT</t>
   </si>
   <si>
-    <t>1Hans Tompits --- Institut fu ̈r Informationssysteme, Technische Universita ̈t Wien,Austria,AT
-0Martina Seidl --- Institut fu ̈r Softwaretechnik, Technische Universita ̈t Wien,Austria,AT
-Johannes Oetsch --- Institut fu ̈r Informationssysteme, Technische Universita ̈t Wien,Austria,AT
-0Stefan Woltran --- Institut fu ̈r Informationssysteme, Technische Universita ̈t Wien,Austria,AT</t>
+    <t>Stefan Woltran --- Institut fu ̈r Informationssysteme, Technische Universita ̈t Wien,Austria,AT
+Martina Seidl --- Institut fu ̈r Softwaretechnik, Technische Universita ̈t Wien,Austria,AT
+Hans Tompits --- Institut fu ̈r Informationssysteme, Technische Universita ̈t Wien,Austria,AT
+Johannes Oetsch --- Institut fu ̈r Informationssysteme, Technische Universita ̈t Wien,Austria,AT</t>
   </si>
   <si>
     <t>TUW-179146</t>
@@ -458,8 +446,8 @@
 Laszlo Keszthelyi --- Vienna University of Technology,Space-based Computing Group,Austria,AT</t>
   </si>
   <si>
-    <t>0Sandford Bessler, Slobodanka Tomic --- Telecommunications Research Centre Vienna (FTW),Austria,AT
-Eva Ku¨ hn, Richard Mordinyi, --- Laszlo Keszthelyi, Christian Schreiber, Space-based Computing Group, Vienna University of Technology,Austria,AT</t>
+    <t>Eva Ku¨ hn, Richard Mordinyi, --- Laszlo Keszthelyi, Christian Schreiber, Space-based Computing Group, Vienna University of Technology,Austria,AT
+Sandford Bessler, Slobodanka Tomic --- Telecommunications Research Centre Vienna (FTW),Austria,AT</t>
   </si>
   <si>
     <t>TUW-180162</t>
@@ -470,9 +458,9 @@
 Engin Kirda --- Institute Eurecom,France,FR</t>
   </si>
   <si>
-    <t>1Christopher Kruegel --- University of California,USA,US
+    <t>Christopher Kruegel --- University of California,USA,US
 Manuel Egele --- Technical University Vienna
-2Engin Kirda --- Institute Eurecom,France,FR</t>
+Engin Kirda --- Institute Eurecom,France,FR</t>
   </si>
   <si>
     <t>TUW-181199</t>
@@ -486,10 +474,10 @@
   </si>
   <si>
     <t>Martin Gebser --- Institut fu ̈r Informatik, Universita ̈t Potsdam,Germany,DE
-0Jo¨ rg Pu¨ hrer --- Institut fu ̈r Informationssysteme, Technische Universita ̈t Wien,Austria,AT
-1Stefan Woltran --- Institut fu ̈r Informationssysteme, Technische Universita ̈t Wien,Austria,AT
-1Torsten Schaub --- Institut fu ̈r Informatik, Universita ̈t Potsdam,Germany,DE
-0Hans Tompits --- Institut fu ̈r Informationssysteme, Technische Universita ̈t Wien,Austria,AT</t>
+Torsten Schaub --- Institut fu ̈r Informatik, Universita ̈t Potsdam,Germany,DE
+Stefan Woltran --- Institut fu ̈r Informationssysteme, Technische Universita ̈t Wien,Austria,AT
+Jo¨ rg Pu¨ hrer --- Institut fu ̈r Informationssysteme, Technische Universita ̈t Wien,Austria,AT
+Hans Tompits --- Institut fu ̈r Informationssysteme, Technische Universita ̈t Wien,Austria,AT</t>
   </si>
   <si>
     <t>TUW-182414</t>
@@ -500,8 +488,8 @@
   </si>
   <si>
     <t>Andreas Rauber --- http://www.ifs.tuwien.ac.at/~andi,Austria,AT
-1Schlagworte --- Webarchivierung
-2Max Kaiser --- Österreichische Nationalbibliothek</t>
+Max Kaiser --- Österreichische Nationalbibliothek
+Schlagworte --- Webarchivierung</t>
   </si>
   <si>
     <t>TUW-182899</t>
@@ -512,7 +500,7 @@
 Geraldine Fitzpatrick --- University of Sussex,Department of Informatics,UK,GB</t>
   </si>
   <si>
-    <t>0Geraldine Fitzpatrick --- Department of Informatics University of Sussex Falmer Brighton BN 9QJ,UK,UK
+    <t>Geraldine Fitzpatrick --- Department of Informatics University of Sussex Falmer Brighton BN 9QJ,UK,UK
 Rowanne Fleck --- Department of Informatics University of Sussex Falmer Brighton BN 9QJ,UK,UK</t>
   </si>
   <si>
@@ -559,13 +547,13 @@
 Tom Rodden --- Nottingham University,MRL,UK,GB</t>
   </si>
   <si>
-    <t>4Geraldine Fitzpatrick Anna Wilkinson, Sue Mawson --- Vienna University of Technology Centre for Health and Social Care
-5Penny Probert Smith, Nour --- Shublaq, Engineering Science, University of Oxford
-0Ann-Marie Hughes, Jane --- Burridge, School of Health Sciences, University of Southampton
-6Thomas Nind, Ian Ricketts Zoe Robertson --- School of Computing, University of Assistive Tech Clinical Specialist.,UK Barnsley District General Hospital
-3ACM Classification Keywords --- H.m. Information interfaces and presentation (e.g., HCI): Miscellaneous.
+    <t>Geraldine Fitzpatrick Anna Wilkinson, Sue Mawson --- Vienna University of Technology Centre for Health and Social Care
+Thomas Nind, Ian Ricketts Zoe Robertson --- School of Computing, University of Assistive Tech Clinical Specialist.,UK Barnsley District General Hospital
+Stefan Rennick Egglestone, --- Tom Rodden, MRL, Nottingham University,UK,UK
+Penny Probert Smith, Nour --- Shublaq, Engineering Science, University of Oxford
+Ann-Marie Hughes, Jane --- Burridge, School of Health Sciences, University of Southampton
 Madeline Balaam, Lesley --- Interact Lab, Uni of Sussex
-1Stefan Rennick Egglestone, --- Tom Rodden, MRL, Nottingham University,UK,UK</t>
+ACM Classification Keywords --- H.m. Information interfaces and presentation (e.g., HCI): Miscellaneous.</t>
   </si>
   <si>
     <t>TUW-191715</t>
@@ -588,14 +576,14 @@
 A Rauber --- Vienna University of Technology,Dept. of Software Technology and Interactive Systems,Austria,AT</t>
   </si>
   <si>
-    <t>4A. Rauber --- Dept. of Software Technology and Interactive Systems, Vienna University of Technology,Austria,AT
-1N. Manola --- Dept. of Informatics and Telecommunications, University of Athens,Greece,GR
-1E. Fox --- Dept. of Computer Science, Virginia Tech,USA,US
-1G. Kakaletris --- Dept. of Informatics and Telecommunications, University of Athens,Greece,GR
-3D. Soergel --- Dept. of Library and Information Studies, University of Buffalo,USA,US
-G. Athanasopoulos --- Dept. of Informatics and Telecommunications, University of Athens,Greece,GR
-0Y. Ioannidis --- Dept. of Informatics and Telecommunications, University of Athens,Greece,GR
-1C. Meghini --- Istituto della Scienza e delle Tecnologie della Informazione, Consiglio Nazionale delle Ricerche,Italy,IT</t>
+    <t>E. Fox --- Dept. of Computer Science, Virginia Tech,USA,US
+C. Meghini --- Istituto della Scienza e delle Tecnologie della Informazione, Consiglio Nazionale delle Ricerche,Italy,IT
+G. Kakaletris --- Dept. of Informatics and Telecommunications, University of Athens,Greece,GR
+N. Manola --- Dept. of Informatics and Telecommunications, University of Athens,Greece,GR
+A. Rauber --- Dept. of Software Technology and Interactive Systems, Vienna University of Technology,Austria,AT
+D. Soergel --- Dept. of Library and Information Studies, University of Buffalo,USA,US
+Y. Ioannidis --- Dept. of Informatics and Telecommunications, University of Athens,Greece,GR
+G. Athanasopoulos --- Dept. of Informatics and Telecommunications, University of Athens,Greece,GR</t>
   </si>
   <si>
     <t>TUW-192724</t>
@@ -606,7 +594,7 @@
 Justyna Patalas-Maliszewska --- University of Vienna,Austria,AT</t>
   </si>
   <si>
-    <t>1Irene Krebs --- Brandenburg University of Technology Cottbus,Germany,DE
+    <t>Irene Krebs --- Brandenburg University of Technology Cottbus,Germany,DE
 Justyna Patalas-Maliszewska --- University of Vienna/Austria, University of Zielona Góra</t>
   </si>
   <si>
@@ -623,8 +611,8 @@
 Felix Schernhammer --- Vienna University of Technology,Institute of Computer Languages, Theory and Logic Group</t>
   </si>
   <si>
-    <t>Bernhard Gramlich --- Institute of Computer Languages, Theory and Logic Group Vienna University of Technology
-0Felix Schernhammer --- Institute of Computer Languages, Theory and Logic Group Vienna University of Technology</t>
+    <t>Felix Schernhammer --- Institute of Computer Languages, Theory and Logic Group Vienna University of Technology
+Bernhard Gramlich --- Institute of Computer Languages, Theory and Logic Group Vienna University of Technology</t>
   </si>
   <si>
     <t>TUW-194660</t>
@@ -659,9 +647,9 @@
 Johannes Heurix --- Vienna University of Technology</t>
   </si>
   <si>
-    <t>1Thomas Neubauer --- Vienna University of
-Kresimir Kasal --- SBA Research
-0Johannes Heurix --- Vienna University of</t>
+    <t>Kresimir Kasal --- SBA Research
+Johannes Heurix --- Vienna University of
+Thomas Neubauer --- Vienna University of</t>
   </si>
   <si>
     <t>TUW-198401</t>
@@ -695,8 +683,8 @@
   <si>
     <t>zur Erlangung des akademischen Grades --- Technische Universität Wien A- Wien Karlsplatz  Tel
 zur Erlangung des akademischen Grades --- Betreuer: Univ.-Prof Dr.Günther Raidl Mitwirkung: Univ.-Ass. Dr. Bin Hu
-01Betreuung --- Technische Universität Wien A- Wien Karlsplatz  Tel
-01Betreuung --- Betreuer: Univ.-Prof Dr.Günther Raidl Mitwirkung: Univ.-Ass. Dr. Bin Hu</t>
+Betreuung --- Technische Universität Wien A- Wien Karlsplatz  Tel
+Betreuung --- Betreuer: Univ.-Prof Dr.Günther Raidl Mitwirkung: Univ.-Ass. Dr. Bin Hu</t>
   </si>
   <si>
     <t>TUW-200748</t>
@@ -717,10 +705,10 @@
 Anders Yeo --- Royal Holloway, University of London Egham,Department of Computer Science,UK,GB</t>
   </si>
   <si>
-    <t>1Anders Yeo --- Department of Computer Science Royal Holloway, University of London Egham,UK,UK
-Gregory Gutin --- Department of Computer Science Royal Holloway, University of London Egham,UK,UK
-0Eun Jung Kim --- Department of Computer Science Royal Holloway, University of London Egham,UK,UK
-0Stefan Szeider --- Department of Computer Science, Durham University,UK,UK</t>
+    <t>Gregory Gutin --- Department of Computer Science Royal Holloway, University of London Egham,UK,UK
+Anders Yeo --- Department of Computer Science Royal Holloway, University of London Egham,UK,UK
+Eun Jung Kim --- Department of Computer Science Royal Holloway, University of London Egham,UK,UK
+Stefan Szeider --- Department of Computer Science, Durham University,UK,UK</t>
   </si>
   <si>
     <t>TUW-200950</t>
@@ -736,14 +724,14 @@
 Stefan Szeider --- Durham University,Department of Computer Science,U.K.,GB</t>
   </si>
   <si>
-    <t>1Frances Rosamond --- University of Newcastle,Australia,AU
-0Carsten Thomassen --- Mathematics Institute, Danish Technical University,Denmark,DK
-Michael Fellows --- University of Newcastle,Australia,AU
-4Fedor V. Fomin --- Department of Informatics, University of Bergen,Norway,NO
-12Stefan Szeider --- Department of Computer Science, Durham University,U.K,UK
-1Daniel Lokshtanov --- Department of Informatics, University of Bergen,Norway,NO
-4Saket Saurabh --- Department of Informatics, University of Bergen,Norway,NO
-4Saket Saurabh --- Institute of Mathematical Sciences,India,IN</t>
+    <t>Michael Fellows --- University of Newcastle,Australia,AU
+Daniel Lokshtanov --- Department of Informatics, University of Bergen,Norway,NO
+Saket Saurabh --- Institute of Mathematical Sciences,India,IN
+Frances Rosamond --- University of Newcastle,Australia,AU
+Carsten Thomassen --- Mathematics Institute, Danish Technical University,Denmark,DK
+Saket Saurabh --- Department of Informatics, University of Bergen,Norway,NO
+Stefan Szeider --- Department of Computer Science, Durham University,U.K,UK
+Fedor V. Fomin --- Department of Informatics, University of Bergen,Norway,NO</t>
   </si>
   <si>
     <t>TUW-200959</t>
@@ -762,8 +750,8 @@
   </si>
   <si>
     <t>Martin Berlakovich --- Institute of Computer Graphics and Algorithms Vienna University of Technology,Austria,AT
-0Gu¨nther R. Raidl --- Institute of Computer Graphics and Algorithms Vienna University of Technology,Austria,AT
-0Mario Ruthmair --- Institute of Computer Graphics and Algorithms Vienna University of Technology,Austria,AT</t>
+Mario Ruthmair --- Institute of Computer Graphics and Algorithms Vienna University of Technology,Austria,AT
+Gu¨nther R. Raidl --- Institute of Computer Graphics and Algorithms Vienna University of Technology,Austria,AT</t>
   </si>
   <si>
     <t>TUW-201160</t>
@@ -773,8 +761,8 @@
 Markus Leitner --- Vienna University of Technology,Institute of Computer Graphics and Algorithms,Austria,AT</t>
   </si>
   <si>
-    <t>0Gu¨nther R. Raidl --- Institute of Computer Graphics and Algorithms Vienna University of Technology,Austria,AT
-Markus Leitner --- Institute of Computer Graphics and Algorithms Vienna University of Technology,Austria,AT</t>
+    <t>Markus Leitner --- Institute of Computer Graphics and Algorithms Vienna University of Technology,Austria,AT
+Gu¨nther R. Raidl --- Institute of Computer Graphics and Algorithms Vienna University of Technology,Austria,AT</t>
   </si>
   <si>
     <t>TUW-201167</t>
@@ -785,9 +773,9 @@
 Mario Ruthmair --- Vienna University of Technology,Institute of Computer Graphics and Algorithms,Austria,AT</t>
   </si>
   <si>
-    <t>Mario Ruthmair --- Institute of Computer Graphics and Algorithms Vienna University of Technology,Austria,AT
-0Gu¨nther R. Raidl --- Institute of Computer Graphics and Algorithms Vienna University of Technology,Austria,AT
-0Andreas Hubmer --- Institute of Computer Graphics and Algorithms Vienna University of Technology,Austria,AT</t>
+    <t>Andreas Hubmer --- Institute of Computer Graphics and Algorithms Vienna University of Technology,Austria,AT
+Mario Ruthmair --- Institute of Computer Graphics and Algorithms Vienna University of Technology,Austria,AT
+Gu¨nther R. Raidl --- Institute of Computer Graphics and Algorithms Vienna University of Technology,Austria,AT</t>
   </si>
   <si>
     <t>TUW-201821</t>
@@ -805,7 +793,7 @@
     <t>Rainer Schuster --- Technische Universität Wien</t>
   </si>
   <si>
-    <t>0an der --- Fakultät für Informatik der Technischen Universität Wien
+    <t>an der --- Fakultät für Informatik der Technischen Universität Wien
 DIPLOMARBEIT --- Fakultät für Informatik der Technischen Universität Wien</t>
   </si>
   <si>
@@ -814,18 +802,18 @@
   <si>
     <t>Rainer Kern --- Vienna University of Technology,Information &amp; Software Engineering Group Vienna,Austria,AT
 Amirreza Tahamtan --- Vienna University of Technology,Information &amp; Software Engineering Group Vienna,Austria,AT
-Min Tjoa --- Vienna University of Technology,Information &amp; Software Engineering Group Vienna,Austria,AT</t>
-  </si>
-  <si>
-    <t>012Rainer Kern --- Vienna University of Technology Institute of Software Technology and Interactive Systems, Information &amp; Software Engineering Group Vienna,Austria,AT
-012A Min Tjoa --- [] A. Tripathi and B. Parihar, “E-Governance challenges and cloud benefits “, Proceedings of the IEEE International Conference on Computer Science and Automation Engineering (CSAE)
-012Rainer Kern --- [] A. Tripathi and B. Parihar, “E-Governance challenges and cloud benefits “, Proceedings of the IEEE International Conference on Computer Science and Automation Engineering (CSAE)
-012A Min Tjoa --- Vienna University of Technology Institute of Software Technology and Interactive Systems, Information &amp; Software Engineering Group Vienna,Austria,AT
+A Min Tjoa --- Vienna University of Technology,Information &amp; Software Engineering Group Vienna,Austria,AT</t>
+  </si>
+  <si>
+    <t>Rainer Kern --- Vienna University of Technology Institute of Software Technology and Interactive Systems, Information &amp; Software Engineering Group Vienna,Austria,AT
 Amirreza Tahamtan --- [] A. Tripathi and B. Parihar, “E-Governance challenges and cloud benefits “, Proceedings of the IEEE International Conference on Computer Science and Automation Engineering (CSAE)
 Amirreza Tahamtan --- [] V. Kundra, “State of Public Sector Cloud Computing,USA,US
-012A Min Tjoa --- [] V. Kundra, “State of Public Sector Cloud Computing,USA,US
+Rainer Kern --- [] V. Kundra, “State of Public Sector Cloud Computing,USA,US
+A Min Tjoa --- Vienna University of Technology Institute of Software Technology and Interactive Systems, Information &amp; Software Engineering Group Vienna,Austria,AT
+A Min Tjoa --- [] A. Tripathi and B. Parihar, “E-Governance challenges and cloud benefits “, Proceedings of the IEEE International Conference on Computer Science and Automation Engineering (CSAE)
+Rainer Kern --- [] A. Tripathi and B. Parihar, “E-Governance challenges and cloud benefits “, Proceedings of the IEEE International Conference on Computer Science and Automation Engineering (CSAE)
 Amirreza Tahamtan --- Vienna University of Technology Institute of Software Technology and Interactive Systems, Information &amp; Software Engineering Group Vienna,Austria,AT
-012Rainer Kern --- [] V. Kundra, “State of Public Sector Cloud Computing,USA,US</t>
+A Min Tjoa --- [] V. Kundra, “State of Public Sector Cloud Computing,USA,US</t>
   </si>
   <si>
     <t>TUW-203409</t>
@@ -836,7 +824,7 @@
   </si>
   <si>
     <t>Viktor Pavlu --- Institute of Computer Languages, Vienna University of Technology,Austria,AT
-0Andreas Krall --- Institute of Computer Languages, Vienna University of Technology,Austria,AT</t>
+Andreas Krall --- Institute of Computer Languages, Vienna University of Technology,Austria,AT</t>
   </si>
   <si>
     <t>TUW-203924</t>
@@ -853,12 +841,12 @@
 Joanne Luciano --- Rensselaer Polytechnic Institute,USA,US</t>
   </si>
   <si>
-    <t>45Holger STENZHORN --- Department of Pediatric Oncology and Hematology, Saarland University Hospital,Germany,DE
+    <t>Holger STENZHORN --- Department of Pediatric Oncology and Hematology, Saarland University Hospital,Germany,DE
+M. Scott MARSHALL --- Informatics Institute, University of Amsterdam,The Netherlands,NL
 Matthias SAMWALD --- Institute of Software Technology and Interactive Systems, Technical University of Vienna,Austria,AT
-0M. Scott MARSHALL --- Informatics Institute, University of Amsterdam,The Netherlands,NL
-2Michel DUMONTIER --- Department of Biology, Institute of Biochemistry, School of Computer Science, Carleton University,Canada,CA
+M. Scott MARSHALL --- Department of Medical Statistics and Bioinformatics, Leiden University Medical Center,The Netherlands,NL
 Matthias SAMWALD --- Medical University of Vienna,Austria,AT
-0M. Scott MARSHALL --- Department of Medical Statistics and Bioinformatics, Leiden University Medical Center,The Netherlands,NL</t>
+Michel DUMONTIER --- Department of Biology, Institute of Biochemistry, School of Computer Science, Carleton University,Canada,CA</t>
   </si>
   <si>
     <t>TUW-204724</t>
@@ -879,9 +867,9 @@
 Jakob Zwirchmayr --- Vienna University of Technology</t>
   </si>
   <si>
-    <t>0Laura Kova´cs --- Vienna University of Technology
-Jens Knoop --- Vienna University of Technology
-0Jakob Zwirchmayr?? --- Vienna University of Technology</t>
+    <t>Jens Knoop --- Vienna University of Technology
+Jakob Zwirchmayr?? --- Vienna University of Technology
+Laura Kova´cs --- Vienna University of Technology</t>
   </si>
   <si>
     <t>TUW-205933</t>
@@ -909,13 +897,13 @@
 M Samwald --- National University of Ireland Galway,Digital Enterprise Research Institute (DERI),Ireland,IE</t>
   </si>
   <si>
-    <t>012Kritz M --- Society of Physicians in Vienna (Billrothhaus),Austria,AT
-1Hanbury A --- Information Retrieval Facility,Austria,AT
+    <t>Gschwandtner M --- Society of Physicians in Vienna (Billrothhaus),Austria,AT
 Samwald M --- Information Retrieval Facility,Austria,AT
 Samwald M --- Digital Enterprise Research Institute (DERI), National University of Ireland Galway,Ireland,IE
+Hanbury A --- Information Retrieval Facility,Austria,AT
 Samwald M --- Medical University of Vienna,Austria,AT
-3Gschwandtner M --- Society of Physicians in Vienna (Billrothhaus),Austria,AT
-3Stefanov V --- Information Retrieval Facility,Austria,AT</t>
+Stefanov V --- Information Retrieval Facility,Austria,AT
+Kritz M --- Society of Physicians in Vienna (Billrothhaus),Austria,AT</t>
   </si>
   <si>
     <t>TUW-217690</t>
@@ -929,7 +917,7 @@
   </si>
   <si>
     <t>Georg Gerstweiler --- Interactive Media Systems Group, Vienna University of Technology
-0Christian Schönauer --- Interactive Media Systems Group, Vienna University of Technology</t>
+Christian Schönauer --- Interactive Media Systems Group, Vienna University of Technology</t>
   </si>
   <si>
     <t>TUW-217971</t>
@@ -958,9 +946,9 @@
 Maia Zaharieva --- University of Vienna,Research Group Multimedia Information Systems,Austria,AT</t>
   </si>
   <si>
-    <t>2Maia Zaharieva --- University of Vienna, Austria, Research Group Multimedia
-Matthias Zeppelzauer --- Vienna University of,Austria, Interactive Media Sys. Group
-1Manfred Del Fabro --- Klagenfurt University, Austria, Institute of Information</t>
+    <t>Maia Zaharieva --- University of Vienna, Austria, Research Group Multimedia
+Manfred Del Fabro --- Klagenfurt University, Austria, Institute of Information
+Matthias Zeppelzauer --- Vienna University of,Austria, Interactive Media Sys. Group</t>
   </si>
   <si>
     <t>TUW-223973</t>
@@ -971,7 +959,7 @@
   </si>
   <si>
     <t>Reinhardt Wenzina --- Institute of Software Technology and Interactive Systems Vienna University of Technology Favoritenstrasse -11,Austria,AT
-0Katharina Kaiser --- Institute of Software Technology and Interactive Systems Vienna University of Technology Favoritenstrasse -11,Austria,AT</t>
+Katharina Kaiser --- Institute of Software Technology and Interactive Systems Vienna University of Technology Favoritenstrasse -11,Austria,AT</t>
   </si>
   <si>
     <t>TUW-225252</t>
@@ -983,14 +971,14 @@
 Bin Hu --- Vienna University of Technology,Institute of Computer Graphics and Algorithms,Austria,AT</t>
   </si>
   <si>
-    <t>01Bin Hu --- Institute of Computer Graphics and Algorithms Vienna University of Technology Favoritenstrae /,Austria,AT
-01Gunther R. Raidl --- Institute of Computer Graphics and Algorithms Vienna University of Technology Favoritenstrae /,Austria,AT
-01Bin Hu --- A Genetic Algorithm with Solution Archive
-01Gunther R. Raidl --- A Genetic Algorithm with Solution Archive
+    <t>Gunther R. Raidl --- A Genetic Algorithm with Solution Archive
+Bin Hu --- A Genetic Algorithm with Solution Archive
 Benjamin Biesinger --- A Genetic Algorithm with Solution Archive
+Gunther R. Raidl --- Institute of Computer Graphics and Algorithms Vienna University of Technology Favoritenstrae /,Austria,AT
 Benjamin Biesinger --- Institute of Computer Graphics and Algorithms Vienna University of Technology Favoritenstrae /,Austria,AT
-01Christian Schauer --- A Genetic Algorithm with Solution Archive
-01Christian Schauer --- Institute of Computer Graphics and Algorithms Vienna University of Technology Favoritenstrae /,Austria,AT</t>
+Christian Schauer --- A Genetic Algorithm with Solution Archive
+Bin Hu --- Institute of Computer Graphics and Algorithms Vienna University of Technology Favoritenstrae /,Austria,AT
+Christian Schauer --- Institute of Computer Graphics and Algorithms Vienna University of Technology Favoritenstrae /,Austria,AT</t>
   </si>
   <si>
     <t>TUW-226000</t>
@@ -1003,7 +991,7 @@
   </si>
   <si>
     <t>Hilda TELLIOGLU --- Vienna University of Technology, Institute of Design and Assessment of Technology,Austria,AT
-0Martin MORANDELL --- AIT Austrian Institute of Technology GmbH, Health &amp; Environment Department,Austria,AT
+Martin MORANDELL --- AIT Austrian Institute of Technology GmbH, Health &amp; Environment Department,Austria,AT
 Christopher MAYER --- AIT Austrian Institute of Technology GmbH, Health &amp; Environment Department,Austria,AT</t>
   </si>
   <si>
@@ -1013,7 +1001,7 @@
     <t>Ioana Jucu --- Vienna University of Technology,Faculty of Informatics</t>
   </si>
   <si>
-    <t>0Ioana Jucu Registration Number --- to the Faculty of Informatics at the Vienna University of Technology
+    <t>Ioana Jucu Registration Number --- to the Faculty of Informatics at the Vienna University of Technology
 Computational Intelligence --- to the Faculty of Informatics at the Vienna University of Technology</t>
   </si>
   <si>
@@ -1026,22 +1014,22 @@
 Stefan Sackmann --- Martin Luther University Halle Wittenberg,Germany,DE</t>
   </si>
   <si>
-    <t>0345Stefan Sackmann --- A. Tjoa Vienna University of Technology, Institute for Software Technology,Austria,AT
-0345Stefan Sackmann --- S. Wohlgemuth (
-Sven Wohlgemuth --- S. Wohlgemuth (
-0345A Min Tjoa --- S. Sackmann Martin Luther University Halle Wittenberg,Germany,DE
-0345Stefan Sackmann --- N. Sonehara National Institute of Informatics, Information and Society Research Division,Japan,JP
-0345Noboru Sonehara --- A. Tjoa Vienna University of Technology, Institute for Software Technology,Austria,AT
+    <t>Sven Wohlgemuth --- S. Wohlgemuth (
+Stefan Sackmann --- N. Sonehara National Institute of Informatics, Information and Society Research Division,Japan,JP
 Sven Wohlgemuth --- S. Sackmann Martin Luther University Halle Wittenberg,Germany,DE
 Sven Wohlgemuth --- A. Tjoa Vienna University of Technology, Institute for Software Technology,Austria,AT
 Sven Wohlgemuth --- N. Sonehara National Institute of Informatics, Information and Society Research Division,Japan,JP
-0345Noboru Sonehara --- S. Sackmann Martin Luther University Halle Wittenberg,Germany,DE
-0345Noboru Sonehara --- N. Sonehara National Institute of Informatics, Information and Society Research Division,Japan,JP
-0345A Min Tjoa --- A. Tjoa Vienna University of Technology, Institute for Software Technology,Austria,AT
-0345A Min Tjoa --- S. Wohlgemuth (
-0345A Min Tjoa --- N. Sonehara National Institute of Informatics, Information and Society Research Division,Japan,JP
-0345Stefan Sackmann --- S. Sackmann Martin Luther University Halle Wittenberg,Germany,DE
-0345Noboru Sonehara --- S. Wohlgemuth (</t>
+Noboru Sonehara --- S. Wohlgemuth (
+A Min Tjoa --- A. Tjoa Vienna University of Technology, Institute for Software Technology,Austria,AT
+Stefan Sackmann --- S. Wohlgemuth (
+A Min Tjoa --- S. Wohlgemuth (
+Noboru Sonehara --- A. Tjoa Vienna University of Technology, Institute for Software Technology,Austria,AT
+Stefan Sackmann --- S. Sackmann Martin Luther University Halle Wittenberg,Germany,DE
+A Min Tjoa --- N. Sonehara National Institute of Informatics, Information and Society Research Division,Japan,JP
+Noboru Sonehara --- S. Sackmann Martin Luther University Halle Wittenberg,Germany,DE
+Stefan Sackmann --- A. Tjoa Vienna University of Technology, Institute for Software Technology,Austria,AT
+Noboru Sonehara --- N. Sonehara National Institute of Informatics, Information and Society Research Division,Japan,JP
+A Min Tjoa --- S. Sackmann Martin Luther University Halle Wittenberg,Germany,DE</t>
   </si>
   <si>
     <t>TUW-231707</t>
@@ -1063,9 +1051,9 @@
 Christian Bors --- Vienna University of Technology,Institute of Software Technology &amp; Interactive Systems (ISIS),Austria,AT</t>
   </si>
   <si>
-    <t>0Silvia Miksch --- Institute of Software Technology &amp; Interactive Systems (ISIS), Vienna University of Technology,Austria,AT
-0Johannes Ga¨ rtner --- XIMES GmbH,Austria,AT
-0Theresia Gschwandtner --- Institute of Software Technology &amp; Interactive Systems (ISIS), Vienna University of Technology,Austria,AT
+    <t>Johannes Ga¨ rtner --- XIMES GmbH,Austria,AT
+Silvia Miksch --- Institute of Software Technology &amp; Interactive Systems (ISIS), Vienna University of Technology,Austria,AT
+Theresia Gschwandtner --- Institute of Software Technology &amp; Interactive Systems (ISIS), Vienna University of Technology,Austria,AT
 Christian Bors --- Institute of Software Technology &amp; Interactive Systems (ISIS), Vienna University of Technology,Austria,AT</t>
   </si>
   <si>
@@ -1081,26 +1069,26 @@
 Wolfgang Aigner --- St. Pölten University of Applied Science</t>
   </si>
   <si>
-    <t>0123Member --- Tim Lammarsch is with Vienna University of Technology
-0123Wolfgang Aigner --- Wolfgang Aigner is with St. Po ̈lten University of Applied Science
-0123Silvia Miksch --- Wolfgang Aigner is with St. Po ̈lten University of Applied Science
-0123Member --- Silvia Miksch is with Vienna University of Technology
-0123Silvia Miksch --- Tim Lammarsch is with Vienna University of Technology
+    <t>Member --- Tim Lammarsch is with Vienna University of Technology
+Wolfgang Aigner --- Wolfgang Aigner is with St. Po ̈lten University of Applied Science
+Silvia Miksch --- Alexander Rind is with St. Po ̈lten University of Applied Science
+Alexander Rind --- Tim Lammarsch is with Vienna University of Technology
 Tim Lammarsch --- Wolfgang Aigner is with St. Po ̈lten University of Applied Science
-0123Wolfgang Aigner --- Silvia Miksch is with Vienna University of Technology
-0123Alexander Rind --- Wolfgang Aigner is with St. Po ̈lten University of Applied Science
-0123Alexander Rind --- Alexander Rind is with St. Po ̈lten University of Applied Science
-0123Silvia Miksch --- Alexander Rind is with St. Po ̈lten University of Applied Science
+Silvia Miksch --- Wolfgang Aigner is with St. Po ̈lten University of Applied Science
+Alexander Rind --- Silvia Miksch is with Vienna University of Technology
+Member --- Wolfgang Aigner is with St. Po ̈lten University of Applied Science
+Silvia Miksch --- Tim Lammarsch is with Vienna University of Technology
 Tim Lammarsch --- Tim Lammarsch is with Vienna University of Technology
-0123Alexander Rind --- Tim Lammarsch is with Vienna University of Technology
 Tim Lammarsch --- Alexander Rind is with St. Po ̈lten University of Applied Science
-0123Silvia Miksch --- Silvia Miksch is with Vienna University of Technology
-0123Alexander Rind --- Silvia Miksch is with Vienna University of Technology
-0123Member --- Alexander Rind is with St. Po ̈lten University of Applied Science
+Member --- Alexander Rind is with St. Po ̈lten University of Applied Science
+Alexander Rind --- Alexander Rind is with St. Po ̈lten University of Applied Science
+Wolfgang Aigner --- Tim Lammarsch is with Vienna University of Technology
+Wolfgang Aigner --- Alexander Rind is with St. Po ̈lten University of Applied Science
 Tim Lammarsch --- Silvia Miksch is with Vienna University of Technology
-0123Wolfgang Aigner --- Alexander Rind is with St. Po ̈lten University of Applied Science
-0123Wolfgang Aigner --- Tim Lammarsch is with Vienna University of Technology
-0123Member --- Wolfgang Aigner is with St. Po ̈lten University of Applied Science</t>
+Member --- Silvia Miksch is with Vienna University of Technology
+Alexander Rind --- Wolfgang Aigner is with St. Po ̈lten University of Applied Science
+Wolfgang Aigner --- Silvia Miksch is with Vienna University of Technology
+Silvia Miksch --- Silvia Miksch is with Vienna University of Technology</t>
   </si>
   <si>
     <t>TUW-236063</t>
@@ -1120,7 +1108,7 @@
 Markus Brunner --- HTL Krems,Department for Information Technology,Austria,AT</t>
   </si>
   <si>
-    <t>0Monika Di Angelo --- Vienna University of Technology, Institute for Computer Aided Automation,Austria,AT
+    <t>Monika Di Angelo --- Vienna University of Technology, Institute for Computer Aided Automation,Austria,AT
 Markus Brunner --- HTL Krems, Department for Information Technology,Austria,AT</t>
   </si>
   <si>
@@ -1135,9 +1123,9 @@
 Georg Gottlob --- University of Oxford,Department of Computer Science,UK,GB</t>
   </si>
   <si>
-    <t>1Andreas Pieris --- Institute of Information Systems, Vienna University of Technology,Austria,AT
-0Georg Gottlob --- Department of Computer Science, University of Oxford,UK,UK
-Marco Calautti --- DIMES, University of Calabria,Italy,IT</t>
+    <t>Andreas Pieris --- Institute of Information Systems, Vienna University of Technology,Austria,AT
+Marco Calautti --- DIMES, University of Calabria,Italy,IT
+Georg Gottlob --- Department of Computer Science, University of Oxford,UK,UK</t>
   </si>
   <si>
     <t>TUW-245336</t>
@@ -1151,9 +1139,9 @@
 Elisabeta Spunei --- University of Reşiţa</t>
   </si>
   <si>
-    <t>Elisabeta Spunei --- Lect. Dr. Eng. Elisabeta Spunei, “Eftimie Murgu” University of Reşiţa
-0Ion Piroi --- Lect. Dr. Eng. Elisabeta Spunei, “Eftimie Murgu” University of Reşiţa
-0Florina Piroi --- Lect. Dr. Eng. Elisabeta Spunei, “Eftimie Murgu” University of Reşiţa</t>
+    <t>Florina Piroi --- Lect. Dr. Eng. Elisabeta Spunei, “Eftimie Murgu” University of Reşiţa
+Ion Piroi --- Lect. Dr. Eng. Elisabeta Spunei, “Eftimie Murgu” University of Reşiţa
+Elisabeta Spunei --- Lect. Dr. Eng. Elisabeta Spunei, “Eftimie Murgu” University of Reşiţa</t>
   </si>
   <si>
     <t>TUW-247301</t>
@@ -1164,8 +1152,8 @@
 Georg Gottlob --- University of Oxford,Department of Computer Science,UK,GB</t>
   </si>
   <si>
-    <t>1Andreas Pieris --- Institute of Information Systems, Vienna University of Technology,Austria,AT
-0Marco Manna --- Department of Mathematics and Computer Science, University of Calabria,Italy,IT
+    <t>Andreas Pieris --- Institute of Information Systems, Vienna University of Technology,Austria,AT
+Marco Manna --- Department of Mathematics and Computer Science, University of Calabria,Italy,IT
 Georg Gottlob --- Department of Computer Science, University of Oxford,UK,UK</t>
   </si>
   <si>
@@ -1178,9 +1166,9 @@
   </si>
   <si>
     <t>Abdel Aziz Taha --- Vienna University of Technology
-01Allan Hanbury --- Vienna University of Technology
-Abdel Aziz Taha --- Univ. of Applied Sciences Western Swizerland
-01Allan Hanbury --- Univ. of Applied Sciences Western Swizerland</t>
+Allan Hanbury --- Vienna University of Technology
+Allan Hanbury --- Univ. of Applied Sciences Western Swizerland
+Abdel Aziz Taha --- Univ. of Applied Sciences Western Swizerland</t>
   </si>
   <si>
     <t>TUW-247743</t>
@@ -1190,9 +1178,9 @@
   </si>
   <si>
     <t>unter Anleitung von --- Ao. Univ. Prof. Andreas Rauber
-01Taha Abdel Aziz --- Ao. Univ. Prof. Andreas Rauber
-unter Anleitung von --- Quellenstrasse B//13 A 1100 Wien
-01Taha Abdel Aziz --- Quellenstrasse B//13 A 1100 Wien</t>
+Taha Abdel Aziz --- Ao. Univ. Prof. Andreas Rauber
+Taha Abdel Aziz --- Quellenstrasse B//13 A 1100 Wien
+unter Anleitung von --- Quellenstrasse B//13 A 1100 Wien</t>
   </si>
   <si>
     <t>TUW-251544</t>
@@ -1208,17 +1196,17 @@
     <t>Mihai Lupu --- Vienna University of Technology,Austria,AT
 Maia Zaharieva --- University of Vienna &amp; Vienna University of Technology,Austria,AT
 Bogdan Ionescu --- University Politehnica of Bucharest,LAPI,Romania,RO
-Alexandru Lucian Gînsc --- LIST,CEA,France,FR
+Alexandru Lucian Gînscă --- LIST,CEA,France,FR
 Bogdan Boteanu --- University Politehnica of Bucharest,LAPI,Romania,RO
 Henning Müller --- University of Applied Sciences Western Switzerland,Switzerland,CH</t>
   </si>
   <si>
-    <t>3Henning Müller --- HES-SO, University of Applied, Sciences Western,Switzerland,CH
-2Alexandru Lucian Gînsca˘ --- CEA,France,FR
+    <t>Maia Zaharieva --- University of Vienna &amp; Vienna, University of Technology,Austria,AT
+Bogdan Boteanu --- LAPI, University Politehnica of,Romania,RO
+Henning Müller --- HES-SO, University of Applied, Sciences Western,Switzerland,CH
+Mihai Lupu --- Vienna University of,Austria,AT
 Bogdan Ionescu --- LAPI, University Politehnica of,Romania,RO
-0Mihai Lupu --- Vienna University of,Austria,AT
-4Maia Zaharieva --- University of Vienna &amp; Vienna, University of Technology,Austria,AT
-2Bogdan Boteanu --- LAPI, University Politehnica of,Romania,RO</t>
+Alexandru Lucian Gînsca˘ --- CEA,France,FR</t>
   </si>
   <si>
     <t>TUW-255712</t>
@@ -1252,9 +1240,9 @@
 Geraldine Fitzpatrick --- TU Wien (Vienna University of Technology),Austria,AT</t>
   </si>
   <si>
-    <t>Jean D. Hallewell Haslwanter --- Upper Austria University of, Applied Sciences,Austria,AT
-0Author Keywords --- Telecare; AAL; User-Centered Design; Older People.
-2Geraldine Fitzpatrick --- TU Wien (Vienna University of, Technology),Austria,AT</t>
+    <t>Author Keywords --- Telecare; AAL; User-Centered Design; Older People.
+Jean D. Hallewell Haslwanter --- Upper Austria University of, Applied Sciences,Austria,AT
+Geraldine Fitzpatrick --- TU Wien (Vienna University of, Technology),Austria,AT</t>
   </si>
 </sst>
 </file>
@@ -4352,7 +4340,7 @@
         <v>32</v>
       </c>
       <c r="F12" t="s" s="105">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="n" s="106">
         <v>1.0</v>
@@ -4366,7 +4354,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="109">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="110">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140229.pdf")</f>
@@ -4378,10 +4366,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140229-xstream.xml")</f>
       </c>
       <c r="E13" t="s" s="113">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="114">
         <v>35</v>
-      </c>
-      <c r="F13" t="s" s="114">
-        <v>36</v>
       </c>
       <c r="G13" t="n" s="115">
         <v>1.0</v>
@@ -4395,7 +4383,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="118">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="119">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140253.pdf")</f>
@@ -4407,10 +4395,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140253-xstream.xml")</f>
       </c>
       <c r="E14" t="s" s="122">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s" s="123">
         <v>38</v>
-      </c>
-      <c r="F14" t="s" s="123">
-        <v>39</v>
       </c>
       <c r="G14" t="n" s="124">
         <v>0.0</v>
@@ -4424,7 +4412,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="127">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="128">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140308.pdf")</f>
@@ -4436,10 +4424,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140308-xstream.xml")</f>
       </c>
       <c r="E15" t="s" s="131">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s" s="132">
         <v>41</v>
-      </c>
-      <c r="F15" t="s" s="132">
-        <v>42</v>
       </c>
       <c r="G15" t="n" s="133">
         <v>1.0</v>
@@ -4453,7 +4441,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="136">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="137">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140533.pdf")</f>
@@ -4465,10 +4453,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140533-xstream.xml")</f>
       </c>
       <c r="E16" t="s" s="140">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s" s="141">
         <v>44</v>
-      </c>
-      <c r="F16" t="s" s="141">
-        <v>45</v>
       </c>
       <c r="G16" t="n" s="142">
         <v>0.0</v>
@@ -4482,7 +4470,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="145">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="146">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140867.pdf")</f>
@@ -4494,7 +4482,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140867-xstream.xml")</f>
       </c>
       <c r="E17" t="s" s="149">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s" s="150">
         <v>8</v>
@@ -4511,7 +4499,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="154">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="155">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140895.pdf")</f>
@@ -4523,10 +4511,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140895-xstream.xml")</f>
       </c>
       <c r="E18" t="s" s="158">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s" s="159">
         <v>49</v>
-      </c>
-      <c r="F18" t="s" s="159">
-        <v>50</v>
       </c>
       <c r="G18" t="n" s="160">
         <v>0.0</v>
@@ -4540,7 +4528,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="163">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="164">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140983.pdf")</f>
@@ -4552,10 +4540,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140983-xstream.xml")</f>
       </c>
       <c r="E19" t="s" s="167">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s" s="168">
         <v>52</v>
-      </c>
-      <c r="F19" t="s" s="168">
-        <v>53</v>
       </c>
       <c r="G19" t="n" s="169">
         <v>0.2</v>
@@ -4569,7 +4557,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="172">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="173">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141024.pdf")</f>
@@ -4581,7 +4569,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141024-xstream.xml")</f>
       </c>
       <c r="E20" t="s" s="176">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s" s="177">
         <v>8</v>
@@ -4598,7 +4586,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="181">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="182">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141065.pdf")</f>
@@ -4610,10 +4598,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141065-xstream.xml")</f>
       </c>
       <c r="E21" t="s" s="185">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s" s="186">
         <v>57</v>
-      </c>
-      <c r="F21" t="s" s="186">
-        <v>58</v>
       </c>
       <c r="G21" t="n" s="187">
         <v>1.0</v>
@@ -4627,7 +4615,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="190">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="191">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141121.pdf")</f>
@@ -4639,10 +4627,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141121-xstream.xml")</f>
       </c>
       <c r="E22" t="s" s="194">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s" s="195">
         <v>60</v>
-      </c>
-      <c r="F22" t="s" s="195">
-        <v>61</v>
       </c>
       <c r="G22" t="n" s="196">
         <v>0.5</v>
@@ -4656,7 +4644,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="199">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="200">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141140.pdf")</f>
@@ -4668,10 +4656,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141140-xstream.xml")</f>
       </c>
       <c r="E23" t="s" s="203">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s" s="204">
         <v>63</v>
-      </c>
-      <c r="F23" t="s" s="204">
-        <v>64</v>
       </c>
       <c r="G23" t="n" s="205">
         <v>0.85</v>
@@ -4685,7 +4673,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="208">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="209">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141336.pdf")</f>
@@ -4697,10 +4685,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141336-xstream.xml")</f>
       </c>
       <c r="E24" t="s" s="212">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s" s="213">
         <v>66</v>
-      </c>
-      <c r="F24" t="s" s="213">
-        <v>67</v>
       </c>
       <c r="G24" t="n" s="214">
         <v>0.0</v>
@@ -4714,7 +4702,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="217">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="218">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141618.pdf")</f>
@@ -4726,7 +4714,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141618-xstream.xml")</f>
       </c>
       <c r="E25" t="s" s="221">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s" s="222">
         <v>8</v>
@@ -4743,7 +4731,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="226">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="227">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141758.pdf")</f>
@@ -4755,7 +4743,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141758-xstream.xml")</f>
       </c>
       <c r="E26" t="s" s="230">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s" s="231">
         <v>8</v>
@@ -4772,7 +4760,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="235">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="236">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-168222.pdf")</f>
@@ -4784,7 +4772,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-168222-xstream.xml")</f>
       </c>
       <c r="E27" t="s" s="239">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s" s="240">
         <v>8</v>
@@ -4801,7 +4789,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="244">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="245">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-168482.pdf")</f>
@@ -4813,10 +4801,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-168482-xstream.xml")</f>
       </c>
       <c r="E28" t="s" s="248">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s" s="249">
         <v>75</v>
-      </c>
-      <c r="F28" t="s" s="249">
-        <v>76</v>
       </c>
       <c r="G28" t="n" s="250">
         <v>0.0</v>
@@ -4830,7 +4818,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="253">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="254">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-169511.pdf")</f>
@@ -4842,10 +4830,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-169511-xstream.xml")</f>
       </c>
       <c r="E29" t="s" s="257">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s" s="258">
         <v>78</v>
-      </c>
-      <c r="F29" t="s" s="258">
-        <v>79</v>
       </c>
       <c r="G29" t="n" s="259">
         <v>0.75</v>
@@ -4859,7 +4847,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="262">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="263">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-172697.pdf")</f>
@@ -4871,10 +4859,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-172697-xstream.xml")</f>
       </c>
       <c r="E30" t="s" s="266">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s" s="267">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G30" t="n" s="268">
         <v>1.0</v>
@@ -4888,7 +4876,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="271">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="272">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-174216.pdf")</f>
@@ -4900,10 +4888,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-174216-xstream.xml")</f>
       </c>
       <c r="E31" t="s" s="275">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s" s="276">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G31" t="n" s="277">
         <v>0.5</v>
@@ -4917,7 +4905,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="280">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B32" s="281">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-175428.pdf")</f>
@@ -4929,10 +4917,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-175428-xstream.xml")</f>
       </c>
       <c r="E32" t="s" s="284">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s" s="285">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G32" t="n" s="286">
         <v>0.0</v>
@@ -4946,7 +4934,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="289">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" s="290">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-176087.pdf")</f>
@@ -4958,10 +4946,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-176087-xstream.xml")</f>
       </c>
       <c r="E33" t="s" s="293">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s" s="294">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G33" t="n" s="295">
         <v>0.83</v>
@@ -4975,7 +4963,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="298">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" s="299">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-177140.pdf")</f>
@@ -4987,10 +4975,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-177140-xstream.xml")</f>
       </c>
       <c r="E34" t="s" s="302">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s" s="303">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G34" t="n" s="304">
         <v>0.0</v>
@@ -5004,7 +4992,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="307">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" s="308">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-179146.pdf")</f>
@@ -5016,10 +5004,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-179146-xstream.xml")</f>
       </c>
       <c r="E35" t="s" s="311">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s" s="312">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G35" t="n" s="313">
         <v>0.0</v>
@@ -5033,7 +5021,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="316">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B36" s="317">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-180162.pdf")</f>
@@ -5045,10 +5033,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-180162-xstream.xml")</f>
       </c>
       <c r="E36" t="s" s="320">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36" t="s" s="321">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G36" t="n" s="322">
         <v>0.67</v>
@@ -5062,7 +5050,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="325">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B37" s="326">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-181199.pdf")</f>
@@ -5074,10 +5062,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-181199-xstream.xml")</f>
       </c>
       <c r="E37" t="s" s="329">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F37" t="s" s="330">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G37" t="n" s="331">
         <v>0.0</v>
@@ -5091,7 +5079,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="334">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" s="335">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-182414.pdf")</f>
@@ -5103,10 +5091,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-182414-xstream.xml")</f>
       </c>
       <c r="E38" t="s" s="338">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F38" t="s" s="339">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G38" t="n" s="340">
         <v>0.0</v>
@@ -5120,7 +5108,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="343">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B39" s="344">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-182899.pdf")</f>
@@ -5132,10 +5120,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-182899-xstream.xml")</f>
       </c>
       <c r="E39" t="s" s="347">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s" s="348">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G39" t="n" s="349">
         <v>1.0</v>
@@ -5149,7 +5137,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="352">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B40" s="353">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-185321.pdf")</f>
@@ -5161,7 +5149,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-185321-xstream.xml")</f>
       </c>
       <c r="E40" t="s" s="356">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F40" t="s" s="357">
         <v>8</v>
@@ -5178,7 +5166,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="361">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B41" s="362">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-185441.pdf")</f>
@@ -5190,7 +5178,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-185441-xstream.xml")</f>
       </c>
       <c r="E41" t="s" s="365">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F41" t="s" s="366">
         <v>8</v>
@@ -5207,7 +5195,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="370">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B42" s="371">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-186227.pdf")</f>
@@ -5219,7 +5207,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-186227-xstream.xml")</f>
       </c>
       <c r="E42" t="s" s="374">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F42" t="s" s="375">
         <v>8</v>
@@ -5236,7 +5224,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="379">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B43" s="380">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-189842.pdf")</f>
@@ -5248,10 +5236,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-189842-xstream.xml")</f>
       </c>
       <c r="E43" t="s" s="383">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F43" t="s" s="384">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G43" t="n" s="385">
         <v>0.14</v>
@@ -5265,7 +5253,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="388">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B44" s="389">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-191715.pdf")</f>
@@ -5277,7 +5265,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-191715-xstream.xml")</f>
       </c>
       <c r="E44" t="s" s="392">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F44" t="s" s="393">
         <v>8</v>
@@ -5294,7 +5282,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="397">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B45" s="398">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-191977.pdf")</f>
@@ -5306,10 +5294,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-191977-xstream.xml")</f>
       </c>
       <c r="E45" t="s" s="401">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F45" t="s" s="402">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G45" t="n" s="403">
         <v>1.0</v>
@@ -5323,7 +5311,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="406">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" s="407">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-192724.pdf")</f>
@@ -5335,10 +5323,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-192724-xstream.xml")</f>
       </c>
       <c r="E46" t="s" s="410">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F46" t="s" s="411">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G46" t="n" s="412">
         <v>1.0</v>
@@ -5352,7 +5340,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="415">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B47" s="416">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194085.pdf")</f>
@@ -5364,7 +5352,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-194085-xstream.xml")</f>
       </c>
       <c r="E47" t="s" s="419">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F47" t="s" s="420">
         <v>8</v>
@@ -5381,7 +5369,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="424">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B48" s="425">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194561.pdf")</f>
@@ -5393,10 +5381,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-194561-xstream.xml")</f>
       </c>
       <c r="E48" t="s" s="428">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F48" t="s" s="429">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G48" t="n" s="430">
         <v>1.0</v>
@@ -5410,7 +5398,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="433">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B49" s="434">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194660.pdf")</f>
@@ -5422,7 +5410,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-194660-xstream.xml")</f>
       </c>
       <c r="E49" t="s" s="437">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F49" t="s" s="438">
         <v>8</v>
@@ -5439,7 +5427,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="442">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B50" s="443">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-197422.pdf")</f>
@@ -5451,10 +5439,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-197422-xstream.xml")</f>
       </c>
       <c r="E50" t="s" s="446">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F50" t="s" s="447">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G50" t="n" s="448">
         <v>1.0</v>
@@ -5468,7 +5456,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="451">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B51" s="452">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-197852.pdf")</f>
@@ -5480,7 +5468,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-197852-xstream.xml")</f>
       </c>
       <c r="E51" t="s" s="455">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F51" t="s" s="456">
         <v>8</v>
@@ -5497,7 +5485,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="460">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B52" s="461">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198400.pdf")</f>
@@ -5509,10 +5497,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198400-xstream.xml")</f>
       </c>
       <c r="E52" t="s" s="464">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F52" t="s" s="465">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G52" t="n" s="466">
         <v>1.0</v>
@@ -5526,7 +5514,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="469">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B53" s="470">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198401.pdf")</f>
@@ -5538,7 +5526,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198401-xstream.xml")</f>
       </c>
       <c r="E53" t="s" s="473">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F53" t="s" s="474">
         <v>8</v>
@@ -5555,7 +5543,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="478">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B54" s="479">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198405.pdf")</f>
@@ -5567,7 +5555,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198405-xstream.xml")</f>
       </c>
       <c r="E54" t="s" s="482">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F54" t="s" s="483">
         <v>8</v>
@@ -5584,7 +5572,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="487">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B55" s="488">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198408.pdf")</f>
@@ -5596,10 +5584,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198408-xstream.xml")</f>
       </c>
       <c r="E55" t="s" s="491">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F55" t="s" s="492">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G55" t="n" s="493">
         <v>0.0</v>
@@ -5613,7 +5601,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="496">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B56" s="497">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200745.pdf")</f>
@@ -5625,10 +5613,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200745-xstream.xml")</f>
       </c>
       <c r="E56" t="s" s="500">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F56" t="s" s="501">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G56" t="n" s="502">
         <v>0.0</v>
@@ -5642,7 +5630,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="505">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B57" s="506">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200748.pdf")</f>
@@ -5654,10 +5642,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200748-xstream.xml")</f>
       </c>
       <c r="E57" t="s" s="509">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F57" t="s" s="510">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G57" t="n" s="511">
         <v>0.0</v>
@@ -5671,7 +5659,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="514">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B58" s="515">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200948.pdf")</f>
@@ -5683,10 +5671,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200948-xstream.xml")</f>
       </c>
       <c r="E58" t="s" s="518">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F58" t="s" s="519">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G58" t="n" s="520">
         <v>1.0</v>
@@ -5700,7 +5688,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="523">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B59" s="524">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200950.pdf")</f>
@@ -5712,10 +5700,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200950-xstream.xml")</f>
       </c>
       <c r="E59" t="s" s="527">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F59" t="s" s="528">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G59" t="n" s="529">
         <v>1.0</v>
@@ -5729,7 +5717,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="532">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B60" s="533">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200959.pdf")</f>
@@ -5741,7 +5729,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200959-xstream.xml")</f>
       </c>
       <c r="E60" t="s" s="536">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F60" t="s" s="537">
         <v>8</v>
@@ -5758,7 +5746,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="541">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B61" s="542">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201066.pdf")</f>
@@ -5770,10 +5758,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-201066-xstream.xml")</f>
       </c>
       <c r="E61" t="s" s="545">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F61" t="s" s="546">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G61" t="n" s="547">
         <v>0.67</v>
@@ -5787,7 +5775,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="550">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B62" s="551">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201160.pdf")</f>
@@ -5799,10 +5787,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-201160-xstream.xml")</f>
       </c>
       <c r="E62" t="s" s="554">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F62" t="s" s="555">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G62" t="n" s="556">
         <v>0.5</v>
@@ -5816,7 +5804,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="559">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B63" s="560">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201167.pdf")</f>
@@ -5828,10 +5816,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-201167-xstream.xml")</f>
       </c>
       <c r="E63" t="s" s="563">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F63" t="s" s="564">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G63" t="n" s="565">
         <v>0.67</v>
@@ -5845,7 +5833,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="568">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B64" s="569">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201821.pdf")</f>
@@ -5857,10 +5845,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-201821-xstream.xml")</f>
       </c>
       <c r="E64" t="s" s="572">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F64" t="s" s="573">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G64" t="n" s="574">
         <v>1.0</v>
@@ -5874,7 +5862,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="577">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B65" s="578">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-202034.pdf")</f>
@@ -5886,10 +5874,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-202034-xstream.xml")</f>
       </c>
       <c r="E65" t="s" s="581">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F65" t="s" s="582">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G65" t="n" s="583">
         <v>0.0</v>
@@ -5903,7 +5891,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="586">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B66" s="587">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-202824.pdf")</f>
@@ -5915,24 +5903,24 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-202824-xstream.xml")</f>
       </c>
       <c r="E66" t="s" s="590">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F66" t="s" s="591">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G66" t="n" s="592">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="H66" t="n" s="593">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="I66" t="n" s="594">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="595">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B67" s="596">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203409.pdf")</f>
@@ -5944,10 +5932,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-203409-xstream.xml")</f>
       </c>
       <c r="E67" t="s" s="599">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F67" t="s" s="600">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G67" t="n" s="601">
         <v>1.0</v>
@@ -5961,7 +5949,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="604">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B68" s="605">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203924.pdf")</f>
@@ -5973,10 +5961,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-203924-xstream.xml")</f>
       </c>
       <c r="E68" t="s" s="608">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F68" t="s" s="609">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G68" t="n" s="610">
         <v>0.83</v>
@@ -5990,7 +5978,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="613">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B69" s="614">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-204724.pdf")</f>
@@ -6002,10 +5990,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-204724-xstream.xml")</f>
       </c>
       <c r="E69" t="s" s="617">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F69" t="s" s="618">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G69" t="n" s="619">
         <v>1.0</v>
@@ -6019,7 +6007,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="622">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B70" s="623">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205557.pdf")</f>
@@ -6031,10 +6019,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-205557-xstream.xml")</f>
       </c>
       <c r="E70" t="s" s="626">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F70" t="s" s="627">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G70" t="n" s="628">
         <v>0.67</v>
@@ -6048,7 +6036,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="631">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B71" s="632">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205933.pdf")</f>
@@ -6077,7 +6065,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="640">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B72" s="641">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-213513.pdf")</f>
@@ -6089,10 +6077,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-213513-xstream.xml")</f>
       </c>
       <c r="E72" t="s" s="644">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F72" t="s" s="645">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G72" t="n" s="646">
         <v>0.5</v>
@@ -6106,7 +6094,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="649">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B73" s="650">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-216744.pdf")</f>
@@ -6118,10 +6106,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-216744-xstream.xml")</f>
       </c>
       <c r="E73" t="s" s="653">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F73" t="s" s="654">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G73" t="n" s="655">
         <v>0.0</v>
@@ -6135,7 +6123,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="658">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B74" s="659">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217690.pdf")</f>
@@ -6147,10 +6135,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-217690-xstream.xml")</f>
       </c>
       <c r="E74" t="s" s="662">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F74" t="s" s="663">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G74" t="n" s="664">
         <v>1.0</v>
@@ -6164,7 +6152,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="667">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B75" s="668">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217971.pdf")</f>
@@ -6176,10 +6164,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-217971-xstream.xml")</f>
       </c>
       <c r="E75" t="s" s="671">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F75" t="s" s="672">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G75" t="n" s="673">
         <v>1.0</v>
@@ -6193,7 +6181,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="676">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B76" s="677">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-221215.pdf")</f>
@@ -6205,10 +6193,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-221215-xstream.xml")</f>
       </c>
       <c r="E76" t="s" s="680">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F76" t="s" s="681">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G76" t="n" s="682">
         <v>0.0</v>
@@ -6222,7 +6210,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="685">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B77" s="686">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223906.pdf")</f>
@@ -6234,10 +6222,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-223906-xstream.xml")</f>
       </c>
       <c r="E77" t="s" s="689">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F77" t="s" s="690">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G77" t="n" s="691">
         <v>1.0</v>
@@ -6251,7 +6239,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="694">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B78" s="695">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223973.pdf")</f>
@@ -6263,10 +6251,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-223973-xstream.xml")</f>
       </c>
       <c r="E78" t="s" s="698">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F78" t="s" s="699">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G78" t="n" s="700">
         <v>1.0</v>
@@ -6280,7 +6268,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="703">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B79" s="704">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-225252.pdf")</f>
@@ -6292,10 +6280,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-225252-xstream.xml")</f>
       </c>
       <c r="E79" t="s" s="707">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F79" t="s" s="708">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G79" t="n" s="709">
         <v>0.38</v>
@@ -6309,7 +6297,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="712">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B80" s="713">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226000.pdf")</f>
@@ -6321,10 +6309,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-226000-xstream.xml")</f>
       </c>
       <c r="E80" t="s" s="716">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F80" t="s" s="717">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G80" t="n" s="718">
         <v>1.0</v>
@@ -6338,7 +6326,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="721">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B81" s="722">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226016.pdf")</f>
@@ -6350,10 +6338,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-226016-xstream.xml")</f>
       </c>
       <c r="E81" t="s" s="725">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F81" t="s" s="726">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G81" t="n" s="727">
         <v>0.0</v>
@@ -6367,7 +6355,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="730">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B82" s="731">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-228620.pdf")</f>
@@ -6379,10 +6367,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-228620-xstream.xml")</f>
       </c>
       <c r="E82" t="s" s="734">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F82" t="s" s="735">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G82" t="n" s="736">
         <v>0.19</v>
@@ -6396,7 +6384,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="739">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B83" s="740">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-231707.pdf")</f>
@@ -6408,10 +6396,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-231707-xstream.xml")</f>
       </c>
       <c r="E83" t="s" s="743">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F83" t="s" s="744">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G83" t="n" s="745">
         <v>1.0</v>
@@ -6425,7 +6413,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="748">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B84" s="749">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233317.pdf")</f>
@@ -6437,10 +6425,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-233317-xstream.xml")</f>
       </c>
       <c r="E84" t="s" s="752">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F84" t="s" s="753">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G84" t="n" s="754">
         <v>0.75</v>
@@ -6454,7 +6442,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="757">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B85" s="758">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233657.pdf")</f>
@@ -6466,10 +6454,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-233657-xstream.xml")</f>
       </c>
       <c r="E85" t="s" s="761">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F85" t="s" s="762">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G85" t="n" s="763">
         <v>0.1</v>
@@ -6483,7 +6471,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="766">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B86" s="767">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236063.pdf")</f>
@@ -6495,7 +6483,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-236063-xstream.xml")</f>
       </c>
       <c r="E86" t="s" s="770">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F86" t="s" s="771">
         <v>8</v>
@@ -6512,7 +6500,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="775">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B87" s="776">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236120.pdf")</f>
@@ -6524,10 +6512,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-236120-xstream.xml")</f>
       </c>
       <c r="E87" t="s" s="779">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F87" t="s" s="780">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G87" t="n" s="781">
         <v>1.0</v>
@@ -6541,7 +6529,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="784">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B88" s="785">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-237297.pdf")</f>
@@ -6570,7 +6558,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="793">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B89" s="794">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-240858.pdf")</f>
@@ -6582,10 +6570,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-240858-xstream.xml")</f>
       </c>
       <c r="E89" t="s" s="797">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F89" t="s" s="798">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G89" t="n" s="799">
         <v>1.0</v>
@@ -6599,7 +6587,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="802">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B90" s="803">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245336.pdf")</f>
@@ -6628,7 +6616,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="811">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B91" s="812">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245799.pdf")</f>
@@ -6640,10 +6628,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-245799-xstream.xml")</f>
       </c>
       <c r="E91" t="s" s="815">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F91" t="s" s="816">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G91" t="n" s="817">
         <v>0.0</v>
@@ -6657,7 +6645,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="820">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B92" s="821">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247301.pdf")</f>
@@ -6669,10 +6657,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-247301-xstream.xml")</f>
       </c>
       <c r="E92" t="s" s="824">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F92" t="s" s="825">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G92" t="n" s="826">
         <v>1.0</v>
@@ -6686,7 +6674,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="829">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B93" s="830">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247741.pdf")</f>
@@ -6698,10 +6686,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-247741-xstream.xml")</f>
       </c>
       <c r="E93" t="s" s="833">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F93" t="s" s="834">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G93" t="n" s="835">
         <v>0.5</v>
@@ -6715,7 +6703,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="838">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B94" s="839">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247743.pdf")</f>
@@ -6727,10 +6715,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-247743-xstream.xml")</f>
       </c>
       <c r="E94" t="s" s="842">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F94" t="s" s="843">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G94" t="n" s="844">
         <v>0.0</v>
@@ -6744,7 +6732,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="847">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B95" s="848">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-251544.pdf")</f>
@@ -6756,7 +6744,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-251544-xstream.xml")</f>
       </c>
       <c r="E95" t="s" s="851">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F95" t="s" s="852">
         <v>8</v>
@@ -6773,7 +6761,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="856">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B96" s="857">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-252847.pdf")</f>
@@ -6785,10 +6773,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-252847-xstream.xml")</f>
       </c>
       <c r="E96" t="s" s="860">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F96" t="s" s="861">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G96" t="n" s="862">
         <v>0.83</v>
@@ -6802,7 +6790,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="865">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B97" s="866">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-255712.pdf")</f>
@@ -6814,10 +6802,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-255712-xstream.xml")</f>
       </c>
       <c r="E97" t="s" s="869">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F97" t="s" s="870">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G97" t="n" s="871">
         <v>1.0</v>
@@ -6831,7 +6819,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="874">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B98" s="875">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-256654.pdf")</f>
@@ -6843,7 +6831,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-256654-xstream.xml")</f>
       </c>
       <c r="E98" t="s" s="878">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F98" t="s" s="879">
         <v>8</v>
@@ -6860,7 +6848,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="883">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B99" s="884">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257397.pdf")</f>
@@ -6872,10 +6860,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-257397-xstream.xml")</f>
       </c>
       <c r="E99" t="s" s="887">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F99" t="s" s="888">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G99" t="n" s="889">
         <v>1.0</v>
@@ -6889,7 +6877,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="892">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B100" s="893">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257870.pdf")</f>
@@ -6901,10 +6889,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-257870-xstream.xml")</f>
       </c>
       <c r="E100" t="s" s="896">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F100" t="s" s="897">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G100" t="n" s="898">
         <v>0.67</v>
